--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alen/Desktop/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>username</t>
   </si>
@@ -111,12 +111,19 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -471,121 +478,121 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
+      <c r="E2" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
+      <c r="E3" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
+      <c r="E4" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="E5" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>24</v>
       </c>
     </row>

--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>username</t>
   </si>
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
